--- a/AAII_Financials/Yearly/CI_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CI_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
   <si>
     <t>CI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,142 +665,154 @@
     <col min="1" max="1" width="3.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42369</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42004</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41639</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41274</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40908</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>153743000</v>
+      </c>
+      <c r="E8" s="3">
         <v>48569000</v>
       </c>
-      <c r="E8" s="3">
-        <v>41643000</v>
-      </c>
       <c r="F8" s="3">
+        <v>42043000</v>
+      </c>
+      <c r="G8" s="3">
         <v>39703000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>37988000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>34950000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>32391000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>29130000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>21891000</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>30819000</v>
+      </c>
+      <c r="E9" s="3">
         <v>27528000</v>
       </c>
-      <c r="E9" s="3">
-        <v>25728000</v>
-      </c>
       <c r="F9" s="3">
+        <v>31024000</v>
+      </c>
+      <c r="G9" s="3">
         <v>24778000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>23576000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>21623000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>20393000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>18118000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>12490000</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>122924000</v>
+      </c>
+      <c r="E10" s="3">
         <v>21041000</v>
       </c>
-      <c r="E10" s="3">
-        <v>15915000</v>
-      </c>
       <c r="F10" s="3">
+        <v>11019000</v>
+      </c>
+      <c r="G10" s="3">
         <v>14925000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>14412000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>13327000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>11998000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>11012000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>9401000</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -813,8 +825,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -842,9 +855,12 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -872,57 +888,63 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="E14" s="3">
-        <v>27000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>348000</v>
+      </c>
+      <c r="G14" s="3">
         <v>35000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>112000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>36000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>807000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>11000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>26000</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>2949000</v>
+      </c>
+      <c r="E15" s="3">
         <v>235000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>115000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>151000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>143000</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I15" s="3" t="s">
         <v>8</v>
       </c>
@@ -932,9 +954,12 @@
       <c r="K15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -944,68 +969,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>145491000</v>
+      </c>
+      <c r="E17" s="3">
         <v>44490000</v>
       </c>
-      <c r="E17" s="3">
-        <v>38037000</v>
-      </c>
       <c r="F17" s="3">
+        <v>38185000</v>
+      </c>
+      <c r="G17" s="3">
         <v>36724000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>34661000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>31646000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>30215000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>26653000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>20015000</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>8252000</v>
+      </c>
+      <c r="E18" s="3">
         <v>4079000</v>
       </c>
-      <c r="E18" s="3">
-        <v>3606000</v>
-      </c>
       <c r="F18" s="3">
+        <v>3858000</v>
+      </c>
+      <c r="G18" s="3">
         <v>2979000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>3327000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>3304000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2176000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2477000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1876000</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1018,8 +1050,9 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1047,50 +1080,56 @@
       <c r="K20" s="3">
         <v>0</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>11903000</v>
+      </c>
+      <c r="E21" s="3">
         <v>4774000</v>
       </c>
-      <c r="E21" s="3">
-        <v>4172000</v>
-      </c>
       <c r="F21" s="3">
+        <v>4424000</v>
+      </c>
+      <c r="G21" s="3">
         <v>3589000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>3912000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>3892000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>2773000</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L21" s="3">
         <v>2221000</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1682000</v>
+      </c>
+      <c r="E22" s="3">
         <v>498000</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>8</v>
+      <c r="F22" s="3">
+        <v>252000</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>8</v>
@@ -1104,72 +1143,81 @@
       <c r="J22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>6570000</v>
+      </c>
+      <c r="E23" s="3">
         <v>3581000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>3606000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2979000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>3327000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>3304000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2176000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2477000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1876000</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>937000</v>
+        <v>1450000</v>
       </c>
       <c r="E24" s="3">
+        <v>939000</v>
+      </c>
+      <c r="F24" s="3">
         <v>1142000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1136000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1250000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1210000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>698000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>853000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>615000</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1197,69 +1245,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2644000</v>
+        <v>5120000</v>
       </c>
       <c r="E26" s="3">
+        <v>2642000</v>
+      </c>
+      <c r="F26" s="3">
         <v>2464000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1843000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2077000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>2094000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1478000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1624000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1261000</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2635000</v>
+        <v>5104000</v>
       </c>
       <c r="E27" s="3">
+        <v>2633000</v>
+      </c>
+      <c r="F27" s="3">
         <v>2469000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1867000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2094000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2102000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1476000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1623000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1260000</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1287,21 +1344,24 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="E29" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F29" s="3">
         <v>-232000</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
@@ -1314,12 +1374,15 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1347,9 +1410,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1377,9 +1443,12 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1407,39 +1476,45 @@
       <c r="K32" s="3">
         <v>0</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>5104000</v>
+      </c>
+      <c r="E33" s="3">
         <v>2637000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2237000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1867000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2094000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2102000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1476000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1623000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1260000</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1467,74 +1542,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>5104000</v>
+      </c>
+      <c r="E35" s="3">
         <v>2637000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2237000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1867000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2094000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2102000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1476000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1623000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1260000</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42369</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42004</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41639</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41274</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40908</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1547,8 +1631,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1561,38 +1646,42 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4619000</v>
+      </c>
+      <c r="E41" s="3">
         <v>3855000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2972000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3185000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1968000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1420000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2795000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2978000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4690000</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1620,39 +1709,45 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E43" s="3">
+      <c r="E43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43" s="3">
         <v>3380000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3077000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>3694000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2757000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1991000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>8033000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>7614000</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1680,9 +1775,12 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1710,9 +1808,12 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1740,99 +1841,111 @@
       <c r="K46" s="3">
         <v>0</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>33195000</v>
+      </c>
+      <c r="E47" s="3">
         <v>39447000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>28619000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>26815000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>24713000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>25825000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>22265000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>23577000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>22403000</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4953000</v>
+      </c>
+      <c r="E48" s="3">
         <v>4562000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3126000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1536000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3068000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3004000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1464000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1120000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1024000</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>81164000</v>
+      </c>
+      <c r="E49" s="3">
         <v>84071000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>6509000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>6404000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>6587000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>6698000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>6931000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>7061000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3534000</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1860,9 +1973,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1890,39 +2006,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
+        <v>9512000</v>
       </c>
       <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
         <v>39000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>304000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>379000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>293000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>92000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>374000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>803000</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1950,39 +2072,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>155774000</v>
+      </c>
+      <c r="E54" s="3">
         <v>153226000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>61759000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>59360000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>57088000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>55870000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>54336000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>53734000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>50697000</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1995,8 +2123,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2009,98 +2138,108 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5090000</v>
+      </c>
+      <c r="E57" s="3">
         <v>4366000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>7290000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>6414000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>6493000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>6264000</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J57" s="3">
+      <c r="J57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K57" s="3">
         <v>6667000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>6627000</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>5514000</v>
+      </c>
+      <c r="E58" s="3">
         <v>2955000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>240000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>276000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>149000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>147000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>233000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>201000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>104000</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>47704000</v>
+      </c>
+      <c r="E59" s="3">
         <v>52387000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>20062000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>19564000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>19260000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>25822000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>24793000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>18670000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>17148000</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2128,48 +2267,54 @@
       <c r="K60" s="3">
         <v>0</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L60" s="3">
+        <v>0</v>
+      </c>
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>31893000</v>
+      </c>
+      <c r="E61" s="3">
         <v>39523000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>5199000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>4756000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>5020000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>4979000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>5014000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>4986000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4990000</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>9387000</v>
+      </c>
+      <c r="E62" s="3">
         <v>9453000</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F62" s="3" t="s">
         <v>8</v>
       </c>
@@ -2185,12 +2330,15 @@
       <c r="J62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
-      </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2218,9 +2366,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2248,9 +2399,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2278,39 +2432,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>110436000</v>
+      </c>
+      <c r="E66" s="3">
         <v>112198000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>48048000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>45637000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>45053000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>45096000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>43769000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>43965000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>42703000</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2323,8 +2483,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2352,9 +2513,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2382,9 +2546,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2412,9 +2579,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2442,39 +2612,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>20162000</v>
+      </c>
+      <c r="E72" s="3">
         <v>15088000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>15800000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>13855000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>12121000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>10289000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>13676000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>12330000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>10787000</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2502,9 +2678,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2532,9 +2711,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2562,39 +2744,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>45338000</v>
+      </c>
+      <c r="E76" s="3">
         <v>41028000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>13711000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>13723000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>12035000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>10774000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>10567000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>9769000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7994000</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2622,74 +2810,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42369</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42004</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41639</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41274</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40908</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>5104000</v>
+      </c>
+      <c r="E81" s="3">
         <v>2637000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2237000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1867000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2094000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2102000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1476000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1623000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1260000</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2702,38 +2899,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>3651000</v>
+      </c>
+      <c r="E83" s="3">
         <v>695000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>566000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>610000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>585000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>588000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>597000</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K83" s="3">
+      <c r="K83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L83" s="3">
         <v>345000</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2761,9 +2962,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2791,9 +2995,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2821,9 +3028,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2851,9 +3061,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2881,39 +3094,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>9485000</v>
+      </c>
+      <c r="E89" s="3">
         <v>3770000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>4086000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>4026000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2933000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1994000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>719000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2350000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1491000</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2926,38 +3145,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1050000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-528000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-471000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-461000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-510000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-473000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-527000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-408000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-422000</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2985,9 +3208,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3015,39 +3241,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-734000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-26378000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1703000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2574000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1736000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1755000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>15000</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K94" s="3">
+      <c r="K94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L94" s="3">
         <v>-1270000</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3060,8 +3292,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3078,7 +3311,7 @@
         <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-11000</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
         <v>-11000</v>
@@ -3089,9 +3322,12 @@
       <c r="K96" s="3">
         <v>-11000</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3119,9 +3355,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3149,9 +3388,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3179,97 +3421,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-7187000</v>
+      </c>
+      <c r="E100" s="3">
         <v>23515000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-2651000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-225000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-609000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1582000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-930000</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="K100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L100" s="3">
         <v>2867000</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-24000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>55000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-10000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-40000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-32000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>13000</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K101" s="3">
+      <c r="K101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L101" s="3">
         <v>-3000</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1556000</v>
+      </c>
+      <c r="E102" s="3">
         <v>883000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-213000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1217000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>548000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1375000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-183000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1712000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>3085000</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/CI_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CI_YR_FIN.xlsx
@@ -721,7 +721,7 @@
         <v>153743000</v>
       </c>
       <c r="E8" s="3">
-        <v>48569000</v>
+        <v>48446000</v>
       </c>
       <c r="F8" s="3">
         <v>42043000</v>
@@ -751,10 +751,10 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>30819000</v>
+        <v>31302000</v>
       </c>
       <c r="E9" s="3">
-        <v>27528000</v>
+        <v>27934000</v>
       </c>
       <c r="F9" s="3">
         <v>31024000</v>
@@ -784,10 +784,10 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>122924000</v>
+        <v>122441000</v>
       </c>
       <c r="E10" s="3">
-        <v>21041000</v>
+        <v>20512000</v>
       </c>
       <c r="F10" s="3">
         <v>11019000</v>
@@ -898,13 +898,13 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>2000</v>
+        <v>812000</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>877000</v>
       </c>
       <c r="F14" s="3">
-        <v>348000</v>
+        <v>474000</v>
       </c>
       <c r="G14" s="3">
         <v>35000</v>
@@ -979,7 +979,7 @@
         <v>145491000</v>
       </c>
       <c r="E17" s="3">
-        <v>44490000</v>
+        <v>44594000</v>
       </c>
       <c r="F17" s="3">
         <v>38185000</v>
@@ -1012,7 +1012,7 @@
         <v>8252000</v>
       </c>
       <c r="E18" s="3">
-        <v>4079000</v>
+        <v>3852000</v>
       </c>
       <c r="F18" s="3">
         <v>3858000</v>
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>498000</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1093,7 +1093,7 @@
         <v>11903000</v>
       </c>
       <c r="E21" s="3">
-        <v>4774000</v>
+        <v>5045000</v>
       </c>
       <c r="F21" s="3">
         <v>4424000</v>
@@ -1126,7 +1126,7 @@
         <v>1682000</v>
       </c>
       <c r="E22" s="3">
-        <v>498000</v>
+        <v>769000</v>
       </c>
       <c r="F22" s="3">
         <v>252000</v>
@@ -1456,7 +1456,7 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-498000</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>

--- a/AAII_Financials/Yearly/CI_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CI_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
   <si>
     <t>CI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,154 +665,166 @@
     <col min="1" max="1" width="3.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42369</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42004</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41639</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41274</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40908</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>160346000</v>
+      </c>
+      <c r="E8" s="3">
         <v>153743000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>48446000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>42043000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>39703000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>37988000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>34950000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>32391000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>29130000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>21891000</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>33212000</v>
+      </c>
+      <c r="E9" s="3">
         <v>31302000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>27934000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>31024000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>24778000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>23576000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>21623000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>20393000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>18118000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>12490000</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>127134000</v>
+      </c>
+      <c r="E10" s="3">
         <v>122441000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>20512000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>11019000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>14925000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>14412000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>13327000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>11998000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>11012000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>9401000</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -826,8 +838,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -858,9 +871,12 @@
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -891,63 +907,69 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-3726000</v>
+      </c>
+      <c r="E14" s="3">
         <v>812000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>877000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>474000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>35000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>112000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>36000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>807000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>11000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>26000</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>1982000</v>
+      </c>
+      <c r="E15" s="3">
         <v>2949000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>235000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>115000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>151000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>143000</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J15" s="3" t="s">
         <v>8</v>
       </c>
@@ -957,9 +979,12 @@
       <c r="L15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -970,74 +995,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>148040000</v>
+      </c>
+      <c r="E17" s="3">
         <v>145491000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>44594000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>38185000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>36724000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>34661000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>31646000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>30215000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>26653000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>20015000</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>12306000</v>
+      </c>
+      <c r="E18" s="3">
         <v>8252000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>3852000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>3858000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2979000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>3327000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>3304000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2176000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2477000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1876000</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1051,8 +1083,9 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1060,11 +1093,11 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>498000</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
@@ -1083,57 +1116,63 @@
       <c r="L20" s="3">
         <v>0</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>15108000</v>
+      </c>
+      <c r="E21" s="3">
         <v>11903000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>5045000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>4424000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>3589000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>3912000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>3892000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>2773000</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M21" s="3">
         <v>2221000</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1438000</v>
+      </c>
+      <c r="E22" s="3">
         <v>1682000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>769000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>252000</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H22" s="3" t="s">
         <v>8</v>
       </c>
@@ -1146,78 +1185,87 @@
       <c r="K22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>10868000</v>
+      </c>
+      <c r="E23" s="3">
         <v>6570000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>3581000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>3606000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2979000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>3327000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>3304000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2176000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2477000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1876000</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2379000</v>
+      </c>
+      <c r="E24" s="3">
         <v>1450000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>939000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1142000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1136000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1250000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1210000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>698000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>853000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>615000</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1248,75 +1296,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>8489000</v>
+      </c>
+      <c r="E26" s="3">
         <v>5120000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2642000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2464000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1843000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>2077000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2094000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1478000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1624000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1261000</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>8458000</v>
+      </c>
+      <c r="E27" s="3">
         <v>5104000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2633000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2469000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1867000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2094000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2102000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1476000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1623000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1260000</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1347,24 +1404,27 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
         <v>4000</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>-232000</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
@@ -1377,12 +1437,15 @@
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1413,9 +1476,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1446,9 +1512,12 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1456,11 +1525,11 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-498000</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
@@ -1479,42 +1548,48 @@
       <c r="L32" s="3">
         <v>0</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>8458000</v>
+      </c>
+      <c r="E33" s="3">
         <v>5104000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2637000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2237000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1867000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2094000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2102000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1476000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1623000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1260000</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1545,80 +1620,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>8458000</v>
+      </c>
+      <c r="E35" s="3">
         <v>5104000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2637000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2237000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1867000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2094000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2102000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1476000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1623000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1260000</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42369</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42004</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41639</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41274</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40908</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1632,8 +1716,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1647,41 +1732,45 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>10182000</v>
+      </c>
+      <c r="E41" s="3">
         <v>4619000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3855000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2972000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3185000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1968000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1420000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2795000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2978000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4690000</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1712,9 +1801,12 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1724,30 +1816,33 @@
       <c r="E43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F43" s="3">
+      <c r="F43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G43" s="3">
         <v>3380000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>3077000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>3694000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2757000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1991000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>8033000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>7614000</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1778,9 +1873,12 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1811,9 +1909,12 @@
       <c r="L45" s="3">
         <v>0</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1844,108 +1945,120 @@
       <c r="L46" s="3">
         <v>0</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>36784000</v>
+      </c>
+      <c r="E47" s="3">
         <v>33195000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>39447000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>28619000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>26815000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>24713000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>25825000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>22265000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>23577000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>22403000</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4757000</v>
+      </c>
+      <c r="E48" s="3">
         <v>4953000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4562000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3126000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1536000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3068000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3004000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1464000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1120000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1024000</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>79827000</v>
+      </c>
+      <c r="E49" s="3">
         <v>81164000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>84071000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>6509000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>6404000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>6587000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>6698000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>6931000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>7061000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3534000</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1976,9 +2089,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2009,42 +2125,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
         <v>9512000</v>
       </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
       <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
         <v>39000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>304000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>379000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>293000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>92000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>374000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>803000</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2075,42 +2197,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>155451000</v>
+      </c>
+      <c r="E54" s="3">
         <v>155774000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>153226000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>61759000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>59360000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>57088000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>55870000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>54336000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>53734000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>50697000</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2124,8 +2252,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2139,107 +2268,117 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5478000</v>
+      </c>
+      <c r="E57" s="3">
         <v>5090000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4366000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>7290000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>6414000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>6493000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>6264000</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K57" s="3">
+      <c r="K57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L57" s="3">
         <v>6667000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>6627000</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3374000</v>
+      </c>
+      <c r="E58" s="3">
         <v>5514000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2955000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>240000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>276000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>149000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>147000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>233000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>201000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>104000</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>53591000</v>
+      </c>
+      <c r="E59" s="3">
         <v>47704000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>52387000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>20062000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>19564000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>19260000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>25822000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>24793000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>18670000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>17148000</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2270,54 +2409,60 @@
       <c r="L60" s="3">
         <v>0</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M60" s="3">
+        <v>0</v>
+      </c>
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>29545000</v>
+      </c>
+      <c r="E61" s="3">
         <v>31893000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>39523000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>5199000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>4756000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>5020000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>4979000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>5014000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4986000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4990000</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>8939000</v>
+      </c>
+      <c r="E62" s="3">
         <v>9387000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>9453000</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G62" s="3" t="s">
         <v>8</v>
       </c>
@@ -2333,12 +2478,15 @@
       <c r="K62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
-      </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2369,9 +2517,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2402,9 +2553,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2435,42 +2589,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>105130000</v>
+      </c>
+      <c r="E66" s="3">
         <v>110436000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>112198000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>48048000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>45637000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>45053000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>45096000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>43769000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>43965000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>42703000</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2484,8 +2644,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2516,9 +2677,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2549,9 +2713,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2582,9 +2749,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2615,42 +2785,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>28575000</v>
+      </c>
+      <c r="E72" s="3">
         <v>20162000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>15088000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>15800000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>13855000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>12121000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>10289000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>13676000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>12330000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>10787000</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2681,9 +2857,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2714,9 +2893,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2747,42 +2929,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>50321000</v>
+      </c>
+      <c r="E76" s="3">
         <v>45338000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>41028000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>13711000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>13723000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>12035000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>10774000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>10567000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>9769000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>7994000</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2813,80 +3001,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42369</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42004</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41639</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41274</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40908</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>8458000</v>
+      </c>
+      <c r="E81" s="3">
         <v>5104000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2637000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2237000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1867000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2094000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2102000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1476000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1623000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1260000</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2900,41 +3097,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2802000</v>
+      </c>
+      <c r="E83" s="3">
         <v>3651000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>695000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>566000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>610000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>585000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>588000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>597000</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L83" s="3">
+      <c r="L83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M83" s="3">
         <v>345000</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2965,9 +3166,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2998,9 +3202,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3031,9 +3238,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3064,9 +3274,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3097,42 +3310,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>10350000</v>
+      </c>
+      <c r="E89" s="3">
         <v>9485000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>3770000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>4086000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>4026000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>2933000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1994000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>719000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2350000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1491000</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3146,41 +3365,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1094000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1050000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-528000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-471000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-461000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-510000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-473000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-527000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-408000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-422000</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3211,9 +3434,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3244,42 +3470,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>2976000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-734000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-26378000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1703000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2574000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1736000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1755000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>15000</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L94" s="3">
+      <c r="L94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M94" s="3">
         <v>-1270000</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3293,8 +3525,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3314,7 +3547,7 @@
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-11000</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
         <v>-11000</v>
@@ -3325,9 +3558,12 @@
       <c r="L96" s="3">
         <v>-11000</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3358,9 +3594,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3391,9 +3630,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3424,106 +3666,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-8533000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-7187000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>23515000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-2651000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-225000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-609000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1582000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-930000</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M100" s="3">
         <v>2867000</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>41000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-8000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-24000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>55000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-10000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-40000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-32000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>13000</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L101" s="3">
+      <c r="L101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M101" s="3">
         <v>-3000</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>4834000</v>
+      </c>
+      <c r="E102" s="3">
         <v>1556000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>883000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-213000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1217000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>548000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1375000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-183000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1712000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>3085000</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/CI_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CI_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
   <si>
     <t>CI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,166 +665,178 @@
     <col min="1" max="1" width="3.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="7" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42004</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41639</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41274</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40908</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>174274000</v>
+      </c>
+      <c r="E8" s="3">
         <v>160346000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>153743000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>48446000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>42043000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>39703000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>37988000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>34950000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>32391000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>29130000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>21891000</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>34040000</v>
+      </c>
+      <c r="E9" s="3">
         <v>33212000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>31302000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>27934000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>31024000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>24778000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>23576000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>21623000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>20393000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>18118000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>12490000</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>140234000</v>
+      </c>
+      <c r="E10" s="3">
         <v>127134000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>122441000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>20512000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>11019000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>14925000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>14412000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>13327000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>11998000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>11012000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>9401000</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -839,8 +851,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -874,9 +887,12 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,69 +926,75 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>451000</v>
+      </c>
+      <c r="E14" s="3">
         <v>-3726000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>812000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>877000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>474000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>35000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>112000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>36000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>807000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>11000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>26000</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>1998000</v>
+      </c>
+      <c r="E15" s="3">
         <v>1982000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>2949000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>235000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>115000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>151000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>143000</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K15" s="3" t="s">
         <v>8</v>
       </c>
@@ -982,9 +1004,12 @@
       <c r="M15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -996,80 +1021,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>166284000</v>
+      </c>
+      <c r="E17" s="3">
         <v>148040000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>145491000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>44594000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>38185000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>36724000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>34661000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>31646000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>30215000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>26653000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>20015000</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>7990000</v>
+      </c>
+      <c r="E18" s="3">
         <v>12306000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>8252000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>3852000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>3858000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2979000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>3327000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>3304000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2176000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2477000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1876000</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1084,8 +1116,9 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1096,11 +1129,11 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>498000</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1119,63 +1152,69 @@
       <c r="M20" s="3">
         <v>0</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>10913000</v>
+      </c>
+      <c r="E21" s="3">
         <v>15108000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>11903000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>5045000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>4424000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>3589000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>3912000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>3892000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2773000</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N21" s="3">
         <v>2221000</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1208000</v>
+      </c>
+      <c r="E22" s="3">
         <v>1438000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1682000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>769000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>252000</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I22" s="3" t="s">
         <v>8</v>
       </c>
@@ -1188,84 +1227,93 @@
       <c r="L22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="M22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>6782000</v>
+      </c>
+      <c r="E23" s="3">
         <v>10868000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>6570000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>3581000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>3606000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2979000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>3327000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>3304000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2176000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2477000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1876000</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1367000</v>
+      </c>
+      <c r="E24" s="3">
         <v>2379000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1450000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>939000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1142000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1136000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1250000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1210000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>698000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>853000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>615000</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1299,81 +1347,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>5415000</v>
+      </c>
+      <c r="E26" s="3">
         <v>8489000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>5120000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2642000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2464000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1843000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2077000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>2094000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1478000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1624000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1261000</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>5365000</v>
+      </c>
+      <c r="E27" s="3">
         <v>8458000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>5104000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2633000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2469000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1867000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2094000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2102000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1476000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1623000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1260000</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1407,27 +1464,30 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="E29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
         <v>4000</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>-232000</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
@@ -1440,12 +1500,15 @@
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1479,9 +1542,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1515,9 +1581,12 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1528,11 +1597,11 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-498000</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -1551,45 +1620,51 @@
       <c r="M32" s="3">
         <v>0</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>5365000</v>
+      </c>
+      <c r="E33" s="3">
         <v>8458000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>5104000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2637000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2237000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1867000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2094000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>2102000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1476000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1623000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1260000</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1623,86 +1698,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>5365000</v>
+      </c>
+      <c r="E35" s="3">
         <v>8458000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>5104000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2637000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2237000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1867000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2094000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>2102000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1476000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1623000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1260000</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42004</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41639</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41274</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40908</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1717,8 +1801,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1733,44 +1818,48 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5081000</v>
+      </c>
+      <c r="E41" s="3">
         <v>10182000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4619000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3855000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2972000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>3185000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1968000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1420000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2795000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2978000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4690000</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1804,9 +1893,12 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1819,30 +1911,33 @@
       <c r="F43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G43" s="3">
+      <c r="G43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H43" s="3">
         <v>3380000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>3077000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3694000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2757000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1991000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>8033000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>7614000</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1876,9 +1971,12 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1912,9 +2010,12 @@
       <c r="M45" s="3">
         <v>0</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1948,117 +2049,129 @@
       <c r="M46" s="3">
         <v>0</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>34429000</v>
+      </c>
+      <c r="E47" s="3">
         <v>36784000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>33195000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>39447000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>28619000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>26815000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>24713000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>25825000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>22265000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>23577000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>22403000</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4143000</v>
+      </c>
+      <c r="E48" s="3">
         <v>4757000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4953000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4562000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3126000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1536000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3068000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3004000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1464000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1120000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1024000</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>79913000</v>
+      </c>
+      <c r="E49" s="3">
         <v>79827000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>81164000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>84071000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>6509000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>6404000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>6587000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>6698000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>6931000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>7061000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3534000</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2092,9 +2205,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2128,45 +2244,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
+        <v>10057000</v>
       </c>
       <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
         <v>9512000</v>
       </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
       <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
         <v>39000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>304000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>379000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>293000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>92000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>374000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>803000</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2200,45 +2322,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>154889000</v>
+      </c>
+      <c r="E54" s="3">
         <v>155451000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>155774000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>153226000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>61759000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>59360000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>57088000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>55870000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>54336000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>53734000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>50697000</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2253,8 +2381,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2269,116 +2398,126 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>6655000</v>
+      </c>
+      <c r="E57" s="3">
         <v>5478000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5090000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4366000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>7290000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>6414000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>6493000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>6264000</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L57" s="3">
+      <c r="L57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M57" s="3">
         <v>6667000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>6627000</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2545000</v>
+      </c>
+      <c r="E58" s="3">
         <v>3374000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>5514000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2955000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>240000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>276000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>149000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>147000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>233000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>201000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>104000</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>49257000</v>
+      </c>
+      <c r="E59" s="3">
         <v>53591000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>47704000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>52387000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>20062000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>19564000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>19260000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>25822000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>24793000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>18670000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>17148000</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2412,60 +2551,66 @@
       <c r="M60" s="3">
         <v>0</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N60" s="3">
+        <v>0</v>
+      </c>
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>31125000</v>
+      </c>
+      <c r="E61" s="3">
         <v>29545000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>31893000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>39523000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>5199000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>4756000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>5020000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>4979000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5014000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4986000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>4990000</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>8346000</v>
+      </c>
+      <c r="E62" s="3">
         <v>8939000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>9387000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>9453000</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>8</v>
       </c>
@@ -2481,12 +2626,15 @@
       <c r="L62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
-      </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2520,9 +2668,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2556,9 +2707,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2592,45 +2746,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>107777000</v>
+      </c>
+      <c r="E66" s="3">
         <v>105130000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>110436000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>112198000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>48048000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>45637000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>45053000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>45096000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>43769000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>43965000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>42703000</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2645,8 +2805,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2680,9 +2841,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2716,9 +2880,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2752,9 +2919,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2788,45 +2958,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>32593000</v>
+      </c>
+      <c r="E72" s="3">
         <v>28575000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>20162000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>15088000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>15800000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>13855000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>12121000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>10289000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>13676000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>12330000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>10787000</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2860,9 +3036,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2896,9 +3075,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2932,45 +3114,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>47112000</v>
+      </c>
+      <c r="E76" s="3">
         <v>50321000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>45338000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>41028000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>13711000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>13723000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>12035000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>10774000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>10567000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>9769000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>7994000</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3004,86 +3192,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42004</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41639</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41274</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40908</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>5365000</v>
+      </c>
+      <c r="E81" s="3">
         <v>8458000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>5104000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2637000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2237000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1867000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2094000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>2102000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1476000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1623000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1260000</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3098,44 +3295,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2923000</v>
+      </c>
+      <c r="E83" s="3">
         <v>2802000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>3651000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>695000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>566000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>610000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>585000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>588000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>597000</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M83" s="3">
+      <c r="M83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N83" s="3">
         <v>345000</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3169,9 +3370,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3205,9 +3409,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3241,9 +3448,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3277,9 +3487,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3313,45 +3526,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>7191000</v>
+      </c>
+      <c r="E89" s="3">
         <v>10350000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>9485000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>3770000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>4086000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>4026000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>2933000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1994000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>719000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2350000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1491000</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3366,44 +3585,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1154000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1094000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1050000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-528000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-471000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-461000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-510000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-473000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-527000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-408000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-422000</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3437,9 +3660,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3473,45 +3699,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3611000</v>
+      </c>
+      <c r="E94" s="3">
         <v>2976000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-734000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-26378000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1703000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2574000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1736000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1755000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>15000</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M94" s="3">
+      <c r="M94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N94" s="3">
         <v>-1270000</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3526,13 +3758,14 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-1341000</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -3550,7 +3783,7 @@
         <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>-11000</v>
+        <v>0</v>
       </c>
       <c r="K96" s="3">
         <v>-11000</v>
@@ -3561,9 +3794,12 @@
       <c r="M96" s="3">
         <v>-11000</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3597,9 +3833,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3633,9 +3872,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3669,115 +3911,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-8212000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-8533000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-7187000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>23515000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-2651000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-225000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-609000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1582000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-930000</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="M100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N100" s="3">
         <v>2867000</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-65000</v>
+      </c>
+      <c r="E101" s="3">
         <v>41000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-8000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-24000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>55000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-10000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-40000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-32000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>13000</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M101" s="3">
+      <c r="M101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N101" s="3">
         <v>-3000</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-4697000</v>
+      </c>
+      <c r="E102" s="3">
         <v>4834000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1556000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>883000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-213000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1217000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>548000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1375000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-183000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1712000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>3085000</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/CI_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CI_YR_FIN.xlsx
@@ -2483,7 +2483,7 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>49257000</v>
+        <v>49285000</v>
       </c>
       <c r="E59" s="3">
         <v>53591000</v>

--- a/AAII_Financials/Yearly/CI_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CI_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
   <si>
     <t>CI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,178 +665,190 @@
     <col min="1" max="1" width="3.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42004</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41639</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41274</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40908</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>180021000</v>
+      </c>
+      <c r="E8" s="3">
         <v>174274000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>160346000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>153743000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>48446000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>42043000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>39703000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>37988000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>34950000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>32391000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>29130000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>21891000</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>32525000</v>
+      </c>
+      <c r="E9" s="3">
         <v>34040000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>33212000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>31302000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>27934000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>31024000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>24778000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>23576000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>21623000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>20393000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>18118000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>12490000</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>147496000</v>
+      </c>
+      <c r="E10" s="3">
         <v>140234000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>127134000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>122441000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>20512000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>11019000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>14925000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>14412000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>13327000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>11998000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>11012000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>9401000</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -852,8 +864,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -890,9 +903,12 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -929,75 +945,81 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-1533000</v>
+      </c>
+      <c r="E14" s="3">
         <v>451000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-3726000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>812000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>877000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>474000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>35000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>112000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>36000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>807000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>11000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>26000</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>1876000</v>
+      </c>
+      <c r="E15" s="3">
         <v>1998000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>1982000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>2949000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>235000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>115000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>151000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>143000</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L15" s="3" t="s">
         <v>8</v>
       </c>
@@ -1007,9 +1029,12 @@
       <c r="N15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1022,86 +1047,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>170440000</v>
+      </c>
+      <c r="E17" s="3">
         <v>166284000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>148040000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>145491000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>44594000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>38185000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>36724000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>34661000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>31646000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>30215000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>26653000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>20015000</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>9581000</v>
+      </c>
+      <c r="E18" s="3">
         <v>7990000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>12306000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>8252000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>3852000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>3858000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2979000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>3327000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3304000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2176000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2477000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1876000</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1117,8 +1149,9 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1132,11 +1165,11 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>498000</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1155,69 +1188,75 @@
       <c r="N20" s="3">
         <v>0</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>12518000</v>
+      </c>
+      <c r="E21" s="3">
         <v>10913000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>15108000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>11903000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>5045000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>4424000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>3589000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>3912000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3892000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2773000</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O21" s="3">
         <v>2221000</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1228000</v>
+      </c>
+      <c r="E22" s="3">
         <v>1208000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1438000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1682000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>769000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>252000</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J22" s="3" t="s">
         <v>8</v>
       </c>
@@ -1230,90 +1269,99 @@
       <c r="M22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>8353000</v>
+      </c>
+      <c r="E23" s="3">
         <v>6782000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>10868000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>6570000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>3581000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>3606000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2979000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>3327000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3304000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2176000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2477000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1876000</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1607000</v>
+      </c>
+      <c r="E24" s="3">
         <v>1367000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>2379000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1450000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>939000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1142000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1136000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1250000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1210000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>698000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>853000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>615000</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1350,87 +1398,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>6746000</v>
+      </c>
+      <c r="E26" s="3">
         <v>5415000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>8489000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>5120000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2642000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>2464000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1843000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>2077000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2094000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1478000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1624000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1261000</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>6668000</v>
+      </c>
+      <c r="E27" s="3">
         <v>5365000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>8458000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>5104000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2633000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2469000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1867000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2094000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2102000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1476000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1623000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1260000</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1467,9 +1524,12 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1479,18 +1539,18 @@
       <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
+      <c r="F29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>4000</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>-232000</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
@@ -1503,12 +1563,15 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1545,9 +1608,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1584,9 +1650,12 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1600,11 +1669,11 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-498000</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -1623,48 +1692,54 @@
       <c r="N32" s="3">
         <v>0</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>6668000</v>
+      </c>
+      <c r="E33" s="3">
         <v>5365000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>8458000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>5104000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2637000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2237000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1867000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>2094000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2102000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1476000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1623000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1260000</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1701,92 +1776,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>6668000</v>
+      </c>
+      <c r="E35" s="3">
         <v>5365000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>8458000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>5104000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2637000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2237000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1867000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>2094000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2102000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1476000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1623000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1260000</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42004</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41639</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41274</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40908</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1802,8 +1886,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1819,47 +1904,51 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5924000</v>
+      </c>
+      <c r="E41" s="3">
         <v>5081000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>10182000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>4619000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3855000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2972000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>3185000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1968000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1420000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2795000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2978000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4690000</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1896,9 +1985,12 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1914,30 +2006,33 @@
       <c r="G43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H43" s="3">
+      <c r="H43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I43" s="3">
         <v>3380000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3077000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3694000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2757000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1991000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>8033000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>7614000</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1974,9 +2069,12 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2013,9 +2111,12 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2052,126 +2153,138 @@
       <c r="N46" s="3">
         <v>0</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>34411000</v>
+      </c>
+      <c r="E47" s="3">
         <v>34429000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>36784000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>33195000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>39447000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>28619000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>26815000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>24713000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>25825000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>22265000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>23577000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>22403000</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4149000</v>
+      </c>
+      <c r="E48" s="3">
         <v>4143000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4757000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4953000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4562000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3126000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1536000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3068000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3004000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1464000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1120000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1024000</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>78303000</v>
+      </c>
+      <c r="E49" s="3">
         <v>79913000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>79827000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>81164000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>84071000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>6509000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>6404000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>6587000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>6698000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>6931000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>7061000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>3534000</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2208,9 +2321,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2247,48 +2363,54 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
         <v>10057000</v>
       </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
       <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
         <v>9512000</v>
       </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
       <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
         <v>39000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>304000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>379000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>293000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>92000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>374000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>803000</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2325,48 +2447,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>143932000</v>
+      </c>
+      <c r="E54" s="3">
         <v>154889000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>155451000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>155774000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>153226000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>61759000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>59360000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>57088000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>55870000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>54336000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>53734000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>50697000</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2382,8 +2510,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2399,125 +2528,135 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>7775000</v>
+      </c>
+      <c r="E57" s="3">
         <v>6655000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5478000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>5090000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4366000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>7290000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>6414000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>6493000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>6264000</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M57" s="3">
+      <c r="M57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N57" s="3">
         <v>6667000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>6627000</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2993000</v>
+      </c>
+      <c r="E58" s="3">
         <v>2545000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>3374000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>5514000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2955000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>240000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>276000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>149000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>147000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>233000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>201000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>104000</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>49566000</v>
+      </c>
+      <c r="E59" s="3">
         <v>49285000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>53591000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>47704000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>52387000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>20062000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>19564000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>19260000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>25822000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>24793000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>18670000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>17148000</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2554,66 +2693,72 @@
       <c r="N60" s="3">
         <v>0</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O60" s="3">
+        <v>0</v>
+      </c>
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>28100000</v>
+      </c>
+      <c r="E61" s="3">
         <v>31125000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>29545000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>31893000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>39523000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>5199000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>4756000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>5020000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4979000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>5014000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>4986000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>4990000</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>7751000</v>
+      </c>
+      <c r="E62" s="3">
         <v>8346000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>8939000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>9387000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>9453000</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>8</v>
       </c>
@@ -2629,12 +2774,15 @@
       <c r="M62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
-      </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2671,9 +2819,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2710,9 +2861,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2749,48 +2903,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>99060000</v>
+      </c>
+      <c r="E66" s="3">
         <v>107777000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>105130000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>110436000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>112198000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>48048000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>45637000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>45053000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>45096000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>43769000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>43965000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>42703000</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2806,8 +2966,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2844,9 +3005,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2883,9 +3047,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2922,9 +3089,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2961,48 +3131,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>37874000</v>
+      </c>
+      <c r="E72" s="3">
         <v>32593000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>28575000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>20162000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>15088000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>15800000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>13855000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>12121000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>10289000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>13676000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>12330000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>10787000</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3039,9 +3215,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3078,9 +3257,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3117,48 +3299,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>44872000</v>
+      </c>
+      <c r="E76" s="3">
         <v>47112000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>50321000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>45338000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>41028000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>13711000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>13723000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>12035000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>10774000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>10567000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>9769000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>7994000</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3195,92 +3383,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42004</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41639</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41274</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40908</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>6668000</v>
+      </c>
+      <c r="E81" s="3">
         <v>5365000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>8458000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>5104000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2637000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2237000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1867000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>2094000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2102000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1476000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1623000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1260000</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3296,47 +3493,51 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2937000</v>
+      </c>
+      <c r="E83" s="3">
         <v>2923000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>2802000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>3651000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>695000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>566000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>610000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>585000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>588000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>597000</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N83" s="3">
+      <c r="N83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O83" s="3">
         <v>345000</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3373,9 +3574,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3412,9 +3616,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3451,9 +3658,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3490,9 +3700,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3529,48 +3742,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>8656000</v>
+      </c>
+      <c r="E89" s="3">
         <v>7191000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>10350000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>9485000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>3770000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>4086000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>4026000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2933000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1994000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>719000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2350000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1491000</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3586,47 +3805,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1295000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1154000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1094000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1050000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-528000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-471000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-461000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-510000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-473000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-527000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-408000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-422000</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3663,9 +3886,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3702,48 +3928,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>3098000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-3611000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>2976000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-734000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-26378000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1703000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2574000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1736000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1755000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>15000</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N94" s="3">
+      <c r="N94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O94" s="3">
         <v>-1270000</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3759,17 +3991,18 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-1384000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-1341000</v>
       </c>
-      <c r="E96" s="3">
-        <v>0</v>
-      </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
@@ -3786,7 +4019,7 @@
         <v>0</v>
       </c>
       <c r="K96" s="3">
-        <v>-11000</v>
+        <v>0</v>
       </c>
       <c r="L96" s="3">
         <v>-11000</v>
@@ -3797,9 +4030,12 @@
       <c r="N96" s="3">
         <v>-11000</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3836,9 +4072,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3875,9 +4114,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3914,124 +4156,136 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-11240000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-8212000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-8533000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-7187000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>23515000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-2651000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-225000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-609000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1582000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-930000</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N100" s="3">
+      <c r="N100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O100" s="3">
         <v>2867000</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-86000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-65000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>41000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-8000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-24000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>55000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-10000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-40000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-32000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>13000</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N101" s="3">
+      <c r="N101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O101" s="3">
         <v>-3000</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>428000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-4697000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>4834000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1556000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>883000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-213000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1217000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>548000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1375000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-183000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1712000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>3085000</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/CI_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CI_YR_FIN.xlsx
@@ -2205,7 +2205,7 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4149000</v>
+        <v>7923000</v>
       </c>
       <c r="E48" s="3">
         <v>4143000</v>
@@ -2247,7 +2247,7 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>78303000</v>
+        <v>110795000</v>
       </c>
       <c r="E49" s="3">
         <v>79913000</v>
@@ -2457,7 +2457,7 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>143932000</v>
+        <v>143885000</v>
       </c>
       <c r="E54" s="3">
         <v>154889000</v>
@@ -2619,7 +2619,7 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>49566000</v>
+        <v>58063000</v>
       </c>
       <c r="E59" s="3">
         <v>49285000</v>
@@ -2745,7 +2745,7 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>7751000</v>
+        <v>7786000</v>
       </c>
       <c r="E62" s="3">
         <v>8346000</v>
@@ -2913,7 +2913,7 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>99060000</v>
+        <v>99210000</v>
       </c>
       <c r="E66" s="3">
         <v>107777000</v>
@@ -3141,7 +3141,7 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>37874000</v>
+        <v>37940000</v>
       </c>
       <c r="E72" s="3">
         <v>32593000</v>
@@ -3309,7 +3309,7 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>44872000</v>
+        <v>44675000</v>
       </c>
       <c r="E76" s="3">
         <v>47112000</v>

--- a/AAII_Financials/Yearly/CI_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CI_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
   <si>
     <t>CI</t>
   </si>
@@ -727,16 +727,16 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>180021000</v>
+        <v>180516000</v>
       </c>
       <c r="E8" s="3">
-        <v>174274000</v>
+        <v>174078000</v>
       </c>
       <c r="F8" s="3">
-        <v>160346000</v>
+        <v>160197000</v>
       </c>
       <c r="G8" s="3">
-        <v>153743000</v>
+        <v>153566000</v>
       </c>
       <c r="H8" s="3">
         <v>48446000</v>
@@ -769,25 +769,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>32525000</v>
+        <v>157040000</v>
       </c>
       <c r="E9" s="3">
-        <v>34040000</v>
+        <v>151115000</v>
       </c>
       <c r="F9" s="3">
-        <v>33212000</v>
+        <v>136194000</v>
       </c>
       <c r="G9" s="3">
-        <v>31302000</v>
+        <v>128487000</v>
       </c>
       <c r="H9" s="3">
-        <v>27934000</v>
+        <v>32321000</v>
       </c>
       <c r="I9" s="3">
-        <v>31024000</v>
+        <v>33158000</v>
       </c>
       <c r="J9" s="3">
-        <v>24778000</v>
+        <v>26954000</v>
       </c>
       <c r="K9" s="3">
         <v>23576000</v>
@@ -811,25 +811,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>147496000</v>
+        <v>23476000</v>
       </c>
       <c r="E10" s="3">
-        <v>140234000</v>
+        <v>22963000</v>
       </c>
       <c r="F10" s="3">
-        <v>127134000</v>
+        <v>24003000</v>
       </c>
       <c r="G10" s="3">
-        <v>122441000</v>
+        <v>25079000</v>
       </c>
       <c r="H10" s="3">
-        <v>20512000</v>
+        <v>16125000</v>
       </c>
       <c r="I10" s="3">
-        <v>11019000</v>
+        <v>8885000</v>
       </c>
       <c r="J10" s="3">
-        <v>14925000</v>
+        <v>12749000</v>
       </c>
       <c r="K10" s="3">
         <v>14412000</v>
@@ -1096,16 +1096,16 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>9581000</v>
+        <v>10076000</v>
       </c>
       <c r="E18" s="3">
-        <v>7990000</v>
+        <v>7794000</v>
       </c>
       <c r="F18" s="3">
-        <v>12306000</v>
+        <v>12157000</v>
       </c>
       <c r="G18" s="3">
-        <v>8252000</v>
+        <v>8075000</v>
       </c>
       <c r="H18" s="3">
         <v>3852000</v>
@@ -1156,16 +1156,16 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>-495000</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>196000</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>149000</v>
       </c>
       <c r="G20" s="3">
-        <v>0</v>
+        <v>177000</v>
       </c>
       <c r="H20" s="3">
         <v>498000</v>
@@ -1660,16 +1660,16 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>495000</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-196000</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>-149000</v>
       </c>
       <c r="G32" s="3">
-        <v>0</v>
+        <v>-177000</v>
       </c>
       <c r="H32" s="3">
         <v>-498000</v>
@@ -1953,25 +1953,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
+        <v>905000</v>
       </c>
       <c r="E42" s="3">
-        <v>0</v>
+        <v>920000</v>
       </c>
       <c r="F42" s="3">
-        <v>0</v>
+        <v>1331000</v>
       </c>
       <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
+        <v>937000</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I42" s="3">
-        <v>0</v>
+        <v>199000</v>
       </c>
       <c r="J42" s="3">
-        <v>0</v>
+        <v>691000</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -1994,20 +1994,20 @@
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>8</v>
+      <c r="D43" s="3">
+        <v>17218000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>15071000</v>
+      </c>
+      <c r="F43" s="3">
+        <v>12191000</v>
+      </c>
+      <c r="G43" s="3">
+        <v>10716000</v>
+      </c>
+      <c r="H43" s="3">
+        <v>10473000</v>
       </c>
       <c r="I43" s="3">
         <v>3380000</v>
@@ -2037,25 +2037,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
+        <v>4777000</v>
       </c>
       <c r="E44" s="3">
-        <v>0</v>
+        <v>3722000</v>
       </c>
       <c r="F44" s="3">
-        <v>0</v>
+        <v>3165000</v>
       </c>
       <c r="G44" s="3">
-        <v>0</v>
+        <v>2661000</v>
       </c>
       <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3">
-        <v>0</v>
+        <v>2821000</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
@@ -2079,25 +2079,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>1298000</v>
       </c>
       <c r="E45" s="3">
-        <v>0</v>
+        <v>11340000</v>
       </c>
       <c r="F45" s="3">
-        <v>0</v>
+        <v>930000</v>
       </c>
       <c r="G45" s="3">
-        <v>0</v>
+        <v>10912000</v>
       </c>
       <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
-      <c r="J45" s="3">
-        <v>0</v>
+        <v>1236000</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
@@ -2121,25 +2121,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
+        <v>30122000</v>
       </c>
       <c r="E46" s="3">
-        <v>0</v>
+        <v>36134000</v>
       </c>
       <c r="F46" s="3">
-        <v>0</v>
+        <v>27799000</v>
       </c>
       <c r="G46" s="3">
-        <v>0</v>
+        <v>29845000</v>
       </c>
       <c r="H46" s="3">
-        <v>0</v>
+        <v>18385000</v>
       </c>
       <c r="I46" s="3">
-        <v>0</v>
+        <v>6551000</v>
       </c>
       <c r="J46" s="3">
-        <v>0</v>
+        <v>6953000</v>
       </c>
       <c r="K46" s="3">
         <v>0</v>
@@ -2163,25 +2163,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>34411000</v>
+        <v>16288000</v>
       </c>
       <c r="E47" s="3">
-        <v>34429000</v>
+        <v>18438000</v>
       </c>
       <c r="F47" s="3">
-        <v>36784000</v>
+        <v>23262000</v>
       </c>
       <c r="G47" s="3">
-        <v>33195000</v>
+        <v>21542000</v>
       </c>
       <c r="H47" s="3">
-        <v>39447000</v>
+        <v>28974000</v>
       </c>
       <c r="I47" s="3">
-        <v>28619000</v>
+        <v>28420000</v>
       </c>
       <c r="J47" s="3">
-        <v>26815000</v>
+        <v>26124000</v>
       </c>
       <c r="K47" s="3">
         <v>24713000</v>
@@ -2373,25 +2373,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
+        <v>18449000</v>
       </c>
       <c r="E52" s="3">
-        <v>10057000</v>
+        <v>16261000</v>
       </c>
       <c r="F52" s="3">
-        <v>0</v>
+        <v>19806000</v>
       </c>
       <c r="G52" s="3">
-        <v>9512000</v>
+        <v>18270000</v>
       </c>
       <c r="H52" s="3">
-        <v>0</v>
+        <v>17234000</v>
       </c>
       <c r="I52" s="3">
-        <v>39000</v>
+        <v>21032000</v>
       </c>
       <c r="J52" s="3">
-        <v>304000</v>
+        <v>18343000</v>
       </c>
       <c r="K52" s="3">
         <v>379000</v>
@@ -2619,25 +2619,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>58063000</v>
+        <v>38463000</v>
       </c>
       <c r="E59" s="3">
-        <v>49285000</v>
+        <v>34372000</v>
       </c>
       <c r="F59" s="3">
-        <v>53591000</v>
+        <v>27170000</v>
       </c>
       <c r="G59" s="3">
-        <v>47704000</v>
+        <v>29534000</v>
       </c>
       <c r="H59" s="3">
-        <v>52387000</v>
+        <v>24574000</v>
       </c>
       <c r="I59" s="3">
-        <v>20062000</v>
+        <v>26847000</v>
       </c>
       <c r="J59" s="3">
-        <v>19564000</v>
+        <v>26189000</v>
       </c>
       <c r="K59" s="3">
         <v>19260000</v>
@@ -2661,25 +2661,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>0</v>
+        <v>41225000</v>
       </c>
       <c r="E60" s="3">
-        <v>0</v>
+        <v>43572000</v>
       </c>
       <c r="F60" s="3">
-        <v>0</v>
+        <v>36022000</v>
       </c>
       <c r="G60" s="3">
-        <v>0</v>
+        <v>40138000</v>
       </c>
       <c r="H60" s="3">
-        <v>0</v>
+        <v>31895000</v>
       </c>
       <c r="I60" s="3">
-        <v>0</v>
+        <v>34377000</v>
       </c>
       <c r="J60" s="3">
-        <v>0</v>
+        <v>32879000</v>
       </c>
       <c r="K60" s="3">
         <v>0</v>
@@ -2745,25 +2745,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>7786000</v>
+        <v>32948000</v>
       </c>
       <c r="E62" s="3">
-        <v>8346000</v>
+        <v>33008000</v>
       </c>
       <c r="F62" s="3">
-        <v>8939000</v>
+        <v>39498000</v>
       </c>
       <c r="G62" s="3">
-        <v>9387000</v>
+        <v>38364000</v>
       </c>
       <c r="H62" s="3">
-        <v>9453000</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>8</v>
+        <v>40736000</v>
+      </c>
+      <c r="I62" s="3">
+        <v>8423000</v>
+      </c>
+      <c r="J62" s="3">
+        <v>7940000</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>8</v>
